--- a/team_specific_matrix/Missouri St._B.xlsx
+++ b/team_specific_matrix/Missouri St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2040816326530612</v>
+        <v>0.2072072072072072</v>
       </c>
       <c r="C2">
-        <v>0.5357142857142857</v>
+        <v>0.5315315315315315</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1581632653061225</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1020408163265306</v>
+        <v>0.0945945945945946</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02702702702702703</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.009009009009009009</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7747747747747747</v>
+        <v>0.7480314960629921</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1891891891891892</v>
+        <v>0.1889763779527559</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02325581395348837</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6046511627906976</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3720930232558139</v>
+        <v>0.3137254901960784</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04093567251461988</v>
+        <v>0.04368932038834952</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02339181286549707</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08187134502923976</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2631578947368421</v>
+        <v>0.2572815533980582</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01169590643274854</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1695906432748538</v>
+        <v>0.1601941747572816</v>
       </c>
       <c r="R6">
-        <v>0.05263157894736842</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="S6">
-        <v>0.3567251461988304</v>
+        <v>0.354368932038835</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08496732026143791</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03267973856209151</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0718954248366013</v>
+        <v>0.07386363636363637</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1241830065359477</v>
+        <v>0.1079545454545455</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0196078431372549</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.130718954248366</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="R7">
-        <v>0.09803921568627451</v>
+        <v>0.1079545454545455</v>
       </c>
       <c r="S7">
-        <v>0.4379084967320261</v>
+        <v>0.4204545454545455</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08994708994708994</v>
+        <v>0.08314087759815242</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02380952380952381</v>
+        <v>0.02540415704387991</v>
       </c>
       <c r="E8">
-        <v>0.002645502645502645</v>
+        <v>0.002309468822170901</v>
       </c>
       <c r="F8">
-        <v>0.04761904761904762</v>
+        <v>0.04387990762124711</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1005291005291005</v>
+        <v>0.1085450346420323</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01058201058201058</v>
+        <v>0.0115473441108545</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1931216931216931</v>
+        <v>0.187066974595843</v>
       </c>
       <c r="R8">
-        <v>0.09259259259259259</v>
+        <v>0.09930715935334873</v>
       </c>
       <c r="S8">
-        <v>0.4391534391534391</v>
+        <v>0.4387990762124711</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08108108108108109</v>
+        <v>0.0718232044198895</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01351351351351351</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02702702702702703</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1081081081081081</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006756756756756757</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1621621621621622</v>
+        <v>0.1712707182320442</v>
       </c>
       <c r="R9">
-        <v>0.1013513513513514</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="S9">
-        <v>0.5</v>
+        <v>0.4972375690607735</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08791208791208792</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02697302697302697</v>
+        <v>0.02622673434856176</v>
       </c>
       <c r="E10">
-        <v>0.000999000999000999</v>
+        <v>0.0008460236886632825</v>
       </c>
       <c r="F10">
-        <v>0.05794205794205794</v>
+        <v>0.06260575296108291</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1218781218781219</v>
+        <v>0.1218274111675127</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01498501498501499</v>
+        <v>0.01353637901861252</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2067932067932068</v>
+        <v>0.2072758037225042</v>
       </c>
       <c r="R10">
-        <v>0.0999000999000999</v>
+        <v>0.09475465313028765</v>
       </c>
       <c r="S10">
-        <v>0.3826173826173826</v>
+        <v>0.3866328257191201</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1416666666666667</v>
+        <v>0.1494661921708185</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08749999999999999</v>
+        <v>0.08540925266903915</v>
       </c>
       <c r="K11">
-        <v>0.2041666666666667</v>
+        <v>0.2099644128113879</v>
       </c>
       <c r="L11">
-        <v>0.5541666666666667</v>
+        <v>0.5409252669039146</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0125</v>
+        <v>0.01423487544483986</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7299270072992701</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1897810218978102</v>
+        <v>0.1987179487179487</v>
       </c>
       <c r="K12">
-        <v>0.0218978102189781</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="L12">
-        <v>0.0145985401459854</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04379562043795621</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02857142857142857</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="G13">
-        <v>0.7428571428571429</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2285714285714286</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01796407185628742</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2574850299401197</v>
+        <v>0.2487309644670051</v>
       </c>
       <c r="I15">
-        <v>0.05389221556886228</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="J15">
-        <v>0.3173652694610778</v>
+        <v>0.3197969543147208</v>
       </c>
       <c r="K15">
-        <v>0.0658682634730539</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09580838323353294</v>
+        <v>0.09644670050761421</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1916167664670659</v>
+        <v>0.1878172588832487</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007246376811594203</v>
+        <v>0.01875</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1666666666666667</v>
+        <v>0.15625</v>
       </c>
       <c r="I16">
-        <v>0.07971014492753623</v>
+        <v>0.075</v>
       </c>
       <c r="J16">
-        <v>0.4202898550724637</v>
+        <v>0.44375</v>
       </c>
       <c r="K16">
-        <v>0.09420289855072464</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02173913043478261</v>
+        <v>0.01875</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08695652173913043</v>
+        <v>0.075</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1231884057971015</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02292263610315186</v>
+        <v>0.02421307506053269</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2005730659025788</v>
+        <v>0.1961259079903148</v>
       </c>
       <c r="I17">
-        <v>0.09742120343839542</v>
+        <v>0.1041162227602906</v>
       </c>
       <c r="J17">
-        <v>0.3925501432664756</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="K17">
-        <v>0.1031518624641834</v>
+        <v>0.09927360774818401</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02005730659025788</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002421307506053269</v>
       </c>
       <c r="O17">
-        <v>0.06303724928366762</v>
+        <v>0.05811138014527845</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1002865329512894</v>
+        <v>0.09200968523002422</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005747126436781609</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1781609195402299</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="I18">
-        <v>0.103448275862069</v>
+        <v>0.1121951219512195</v>
       </c>
       <c r="J18">
-        <v>0.3908045977011494</v>
+        <v>0.3853658536585366</v>
       </c>
       <c r="K18">
-        <v>0.103448275862069</v>
+        <v>0.1073170731707317</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02298850574712644</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08045977011494253</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1149425287356322</v>
+        <v>0.1170731707317073</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02611218568665377</v>
+        <v>0.02410640066500416</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2059961315280464</v>
+        <v>0.2036575228595179</v>
       </c>
       <c r="I19">
-        <v>0.07253384912959381</v>
+        <v>0.07564422277639235</v>
       </c>
       <c r="J19">
-        <v>0.3829787234042553</v>
+        <v>0.3823773898586866</v>
       </c>
       <c r="K19">
-        <v>0.1063829787234043</v>
+        <v>0.1047381546134663</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02030947775628627</v>
+        <v>0.02244389027431421</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05996131528046422</v>
+        <v>0.06400665004156277</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1257253384912959</v>
+        <v>0.1230257689110557</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Missouri St._B.xlsx
+++ b/team_specific_matrix/Missouri St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2072072072072072</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.5315315315315315</v>
+        <v>0.548936170212766</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1666666666666667</v>
+        <v>0.1617021276595745</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0945945945945946</v>
+        <v>0.08936170212765958</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03149606299212598</v>
+        <v>0.03597122302158273</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03149606299212598</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7480314960629921</v>
+        <v>0.7482014388489209</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1889763779527559</v>
+        <v>0.1870503597122302</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6470588235294118</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3137254901960784</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04368932038834952</v>
+        <v>0.04017857142857143</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02427184466019417</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07766990291262135</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2572815533980582</v>
+        <v>0.2455357142857143</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01941747572815534</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1601941747572816</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="R6">
-        <v>0.06310679611650485</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="S6">
-        <v>0.354368932038835</v>
+        <v>0.3616071428571428</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07954545454545454</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02840909090909091</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07386363636363637</v>
+        <v>0.0748663101604278</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1079545454545455</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02272727272727273</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1590909090909091</v>
+        <v>0.160427807486631</v>
       </c>
       <c r="R7">
-        <v>0.1079545454545455</v>
+        <v>0.1016042780748663</v>
       </c>
       <c r="S7">
-        <v>0.4204545454545455</v>
+        <v>0.427807486631016</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08314087759815242</v>
+        <v>0.08158995815899582</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02540415704387991</v>
+        <v>0.02301255230125523</v>
       </c>
       <c r="E8">
-        <v>0.002309468822170901</v>
+        <v>0.002092050209205021</v>
       </c>
       <c r="F8">
-        <v>0.04387990762124711</v>
+        <v>0.04811715481171548</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1085450346420323</v>
+        <v>0.1066945606694561</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0115473441108545</v>
+        <v>0.0104602510460251</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.187066974595843</v>
+        <v>0.1903765690376569</v>
       </c>
       <c r="R8">
-        <v>0.09930715935334873</v>
+        <v>0.09832635983263599</v>
       </c>
       <c r="S8">
-        <v>0.4387990762124711</v>
+        <v>0.4393305439330544</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0718232044198895</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01657458563535912</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03867403314917127</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09944751381215469</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005524861878453038</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1712707182320442</v>
+        <v>0.1761658031088083</v>
       </c>
       <c r="R9">
-        <v>0.09944751381215469</v>
+        <v>0.1036269430051813</v>
       </c>
       <c r="S9">
-        <v>0.4972375690607735</v>
+        <v>0.4870466321243523</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08629441624365482</v>
+        <v>0.08602999210734018</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02622673434856176</v>
+        <v>0.02525651144435675</v>
       </c>
       <c r="E10">
-        <v>0.0008460236886632825</v>
+        <v>0.0007892659826361484</v>
       </c>
       <c r="F10">
-        <v>0.06260575296108291</v>
+        <v>0.06471981057616416</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1218274111675127</v>
+        <v>0.1231254932912391</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01353637901861252</v>
+        <v>0.01262825572217837</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2072758037225042</v>
+        <v>0.2067876874506709</v>
       </c>
       <c r="R10">
-        <v>0.09475465313028765</v>
+        <v>0.09865824782951854</v>
       </c>
       <c r="S10">
-        <v>0.3866328257191201</v>
+        <v>0.3820047355958958</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1494661921708185</v>
+        <v>0.1559322033898305</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08540925266903915</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="K11">
-        <v>0.2099644128113879</v>
+        <v>0.2135593220338983</v>
       </c>
       <c r="L11">
-        <v>0.5409252669039146</v>
+        <v>0.5322033898305085</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01423487544483986</v>
+        <v>0.0135593220338983</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7307692307692307</v>
+        <v>0.7267080745341615</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1987179487179487</v>
+        <v>0.2049689440993789</v>
       </c>
       <c r="K12">
-        <v>0.01923076923076923</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="L12">
-        <v>0.01282051282051282</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03846153846153846</v>
+        <v>0.03726708074534162</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02439024390243903</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G13">
-        <v>0.7317073170731707</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2439024390243902</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02030456852791878</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2487309644670051</v>
+        <v>0.2417061611374408</v>
       </c>
       <c r="I15">
-        <v>0.05076142131979695</v>
+        <v>0.05687203791469194</v>
       </c>
       <c r="J15">
-        <v>0.3197969543147208</v>
+        <v>0.3270142180094787</v>
       </c>
       <c r="K15">
-        <v>0.07614213197969544</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09644670050761421</v>
+        <v>0.09004739336492891</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1878172588832487</v>
+        <v>0.1895734597156398</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01875</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.15625</v>
+        <v>0.1705882352941177</v>
       </c>
       <c r="I16">
-        <v>0.075</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="J16">
-        <v>0.44375</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="K16">
-        <v>0.08749999999999999</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01875</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.075</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.125</v>
+        <v>0.1294117647058824</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02421307506053269</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1961259079903148</v>
+        <v>0.203579418344519</v>
       </c>
       <c r="I17">
-        <v>0.1041162227602906</v>
+        <v>0.1029082774049217</v>
       </c>
       <c r="J17">
-        <v>0.4067796610169492</v>
+        <v>0.4093959731543624</v>
       </c>
       <c r="K17">
-        <v>0.09927360774818401</v>
+        <v>0.09619686800894854</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01694915254237288</v>
+        <v>0.01789709172259508</v>
       </c>
       <c r="N17">
-        <v>0.002421307506053269</v>
+        <v>0.002237136465324385</v>
       </c>
       <c r="O17">
-        <v>0.05811138014527845</v>
+        <v>0.05369127516778523</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09200968523002422</v>
+        <v>0.09172259507829977</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01951219512195122</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1707317073170732</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="I18">
-        <v>0.1121951219512195</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J18">
-        <v>0.3853658536585366</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="K18">
-        <v>0.1073170731707317</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01951219512195122</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06829268292682927</v>
+        <v>0.07456140350877193</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1170731707317073</v>
+        <v>0.1228070175438596</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02410640066500416</v>
+        <v>0.02249806051202483</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2036575228595179</v>
+        <v>0.2102404965089217</v>
       </c>
       <c r="I19">
-        <v>0.07564422277639235</v>
+        <v>0.07525213343677269</v>
       </c>
       <c r="J19">
-        <v>0.3823773898586866</v>
+        <v>0.3801396431342126</v>
       </c>
       <c r="K19">
-        <v>0.1047381546134663</v>
+        <v>0.1024049650892164</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02244389027431421</v>
+        <v>0.02249806051202483</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06400665004156277</v>
+        <v>0.06671838634600466</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1230257689110557</v>
+        <v>0.1202482544608223</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Missouri St._B.xlsx
+++ b/team_specific_matrix/Missouri St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.2032520325203252</v>
       </c>
       <c r="C2">
-        <v>0.548936170212766</v>
+        <v>0.5447154471544715</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1617021276595745</v>
+        <v>0.1626016260162602</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08936170212765958</v>
+        <v>0.08943089430894309</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03597122302158273</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02877697841726619</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7482014388489209</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1870503597122302</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03846153846153846</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6538461538461539</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3076923076923077</v>
+        <v>0.3207547169811321</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04017857142857143</v>
+        <v>0.03930131004366812</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02232142857142857</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07589285714285714</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2455357142857143</v>
+        <v>0.2489082969432314</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01785714285714286</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1607142857142857</v>
+        <v>0.1615720524017467</v>
       </c>
       <c r="R6">
-        <v>0.07589285714285714</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="S6">
-        <v>0.3616071428571428</v>
+        <v>0.3624454148471616</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08021390374331551</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0267379679144385</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0748663101604278</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.106951871657754</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0213903743315508</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.160427807486631</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="R7">
-        <v>0.1016042780748663</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="S7">
-        <v>0.427807486631016</v>
+        <v>0.4432989690721649</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08158995815899582</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02301255230125523</v>
+        <v>0.02208835341365462</v>
       </c>
       <c r="E8">
-        <v>0.002092050209205021</v>
+        <v>0.002008032128514056</v>
       </c>
       <c r="F8">
-        <v>0.04811715481171548</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1066945606694561</v>
+        <v>0.1104417670682731</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0104602510460251</v>
+        <v>0.01004016064257028</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1903765690376569</v>
+        <v>0.1867469879518072</v>
       </c>
       <c r="R8">
-        <v>0.09832635983263599</v>
+        <v>0.09437751004016064</v>
       </c>
       <c r="S8">
-        <v>0.4393305439330544</v>
+        <v>0.4417670682730924</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07253886010362694</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0155440414507772</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03626943005181347</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09844559585492228</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01036269430051814</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1761658031088083</v>
+        <v>0.1767676767676768</v>
       </c>
       <c r="R9">
-        <v>0.1036269430051813</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="S9">
-        <v>0.4870466321243523</v>
+        <v>0.4898989898989899</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08602999210734018</v>
+        <v>0.08702290076335878</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02525651144435675</v>
+        <v>0.02519083969465649</v>
       </c>
       <c r="E10">
-        <v>0.0007892659826361484</v>
+        <v>0.0007633587786259542</v>
       </c>
       <c r="F10">
-        <v>0.06471981057616416</v>
+        <v>0.0633587786259542</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1231254932912391</v>
+        <v>0.1206106870229008</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01262825572217837</v>
+        <v>0.01374045801526718</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2067876874506709</v>
+        <v>0.2053435114503817</v>
       </c>
       <c r="R10">
-        <v>0.09865824782951854</v>
+        <v>0.1015267175572519</v>
       </c>
       <c r="S10">
-        <v>0.3820047355958958</v>
+        <v>0.3824427480916031</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1559322033898305</v>
+        <v>0.1563517915309446</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0847457627118644</v>
+        <v>0.08143322475570032</v>
       </c>
       <c r="K11">
-        <v>0.2135593220338983</v>
+        <v>0.2149837133550489</v>
       </c>
       <c r="L11">
-        <v>0.5322033898305085</v>
+        <v>0.5276872964169381</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0135593220338983</v>
+        <v>0.01954397394136808</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7267080745341615</v>
+        <v>0.7349397590361446</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2049689440993789</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="K12">
-        <v>0.01863354037267081</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="L12">
-        <v>0.0124223602484472</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03726708074534162</v>
+        <v>0.03614457831325301</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02369668246445497</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2417061611374408</v>
+        <v>0.2409090909090909</v>
       </c>
       <c r="I15">
-        <v>0.05687203791469194</v>
+        <v>0.05909090909090909</v>
       </c>
       <c r="J15">
-        <v>0.3270142180094787</v>
+        <v>0.3227272727272728</v>
       </c>
       <c r="K15">
-        <v>0.07109004739336493</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09004739336492891</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1895734597156398</v>
+        <v>0.1954545454545455</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01764705882352941</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1705882352941177</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="I16">
-        <v>0.07058823529411765</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="J16">
-        <v>0.4352941176470588</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="K16">
-        <v>0.08235294117647059</v>
+        <v>0.08522727272727272</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02352941176470588</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07058823529411765</v>
+        <v>0.07386363636363637</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1294117647058824</v>
+        <v>0.1306818181818182</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02237136465324385</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.203579418344519</v>
+        <v>0.1986899563318777</v>
       </c>
       <c r="I17">
-        <v>0.1029082774049217</v>
+        <v>0.1048034934497817</v>
       </c>
       <c r="J17">
-        <v>0.4093959731543624</v>
+        <v>0.4104803493449782</v>
       </c>
       <c r="K17">
-        <v>0.09619686800894854</v>
+        <v>0.09388646288209607</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01789709172259508</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="N17">
-        <v>0.002237136465324385</v>
+        <v>0.002183406113537118</v>
       </c>
       <c r="O17">
-        <v>0.05369127516778523</v>
+        <v>0.05458515283842795</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09172259507829977</v>
+        <v>0.09606986899563319</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02192982456140351</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1710526315789474</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="I18">
-        <v>0.1052631578947368</v>
+        <v>0.1059322033898305</v>
       </c>
       <c r="J18">
-        <v>0.3815789473684211</v>
+        <v>0.3771186440677966</v>
       </c>
       <c r="K18">
-        <v>0.1052631578947368</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01754385964912281</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07456140350877193</v>
+        <v>0.07203389830508475</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1228070175438596</v>
+        <v>0.1271186440677966</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02249806051202483</v>
+        <v>0.02296296296296296</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2102404965089217</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="I19">
-        <v>0.07525213343677269</v>
+        <v>0.0725925925925926</v>
       </c>
       <c r="J19">
-        <v>0.3801396431342126</v>
+        <v>0.38</v>
       </c>
       <c r="K19">
-        <v>0.1024049650892164</v>
+        <v>0.1007407407407407</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02249806051202483</v>
+        <v>0.02148148148148148</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06671838634600466</v>
+        <v>0.06592592592592593</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1202482544608223</v>
+        <v>0.122962962962963</v>
       </c>
     </row>
   </sheetData>
